--- a/eda_casestudy/30-6us arm.xlsx
+++ b/eda_casestudy/30-6us arm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>loan attributes</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>36 months</t>
+  </si>
+  <si>
+    <t>4,6,8,10</t>
+  </si>
+  <si>
+    <t>25-90%</t>
+  </si>
+  <si>
+    <t>Value Range</t>
   </si>
 </sst>
 </file>
@@ -166,9 +175,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -179,11 +200,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -517,22 +550,26 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="1" max="4" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -625,10 +662,16 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
